--- a/simulation_data/one_step_algorithm/1s_error_level_10_percent_water_80.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_10_percent_water_80.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>90.33040674891654</v>
+        <v>90.4513252227335</v>
       </c>
       <c r="D2" t="n">
-        <v>3.929044914383623</v>
+        <v>4.027855698290371</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>88.44672136095292</v>
+        <v>89.170173743666</v>
       </c>
       <c r="D3" t="n">
-        <v>3.556603180804632</v>
+        <v>3.790472842439675</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>88.58280785656645</v>
+        <v>88.17207710165088</v>
       </c>
       <c r="D4" t="n">
-        <v>4.051662707919842</v>
+        <v>4.004647305189327</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.65148653102447</v>
+        <v>87.24278128667419</v>
       </c>
       <c r="D5" t="n">
-        <v>3.566810836040553</v>
+        <v>3.79728546284631</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>84.90189883246914</v>
+        <v>85.73201235039025</v>
       </c>
       <c r="D6" t="n">
-        <v>3.844835297266256</v>
+        <v>3.782635957690872</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>84.89688725866895</v>
+        <v>84.99361031516361</v>
       </c>
       <c r="D7" t="n">
-        <v>3.758290344693912</v>
+        <v>4.029889311490572</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>83.62689948600499</v>
+        <v>83.78195953788411</v>
       </c>
       <c r="D8" t="n">
-        <v>3.871408022627558</v>
+        <v>3.969189364036603</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>83.16426619695343</v>
+        <v>83.27971130423994</v>
       </c>
       <c r="D9" t="n">
-        <v>4.206493464936909</v>
+        <v>4.07905294806929</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>82.1223029394137</v>
+        <v>81.64684566247719</v>
       </c>
       <c r="D10" t="n">
-        <v>3.947751287858951</v>
+        <v>3.66582327085092</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>80.9402367198592</v>
+        <v>81.43193337583827</v>
       </c>
       <c r="D11" t="n">
-        <v>3.89802826512403</v>
+        <v>3.58788635547149</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>80.0963154851905</v>
+        <v>79.92118349851326</v>
       </c>
       <c r="D12" t="n">
-        <v>3.714990603575955</v>
+        <v>3.899234738145304</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.87350139766004</v>
+        <v>78.98077789550244</v>
       </c>
       <c r="D13" t="n">
-        <v>4.295005841025237</v>
+        <v>4.1164756989098</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>77.78217057281429</v>
+        <v>78.24991411618629</v>
       </c>
       <c r="D14" t="n">
-        <v>4.285868734422682</v>
+        <v>3.808142289108062</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>77.76297953221088</v>
+        <v>77.42856626179361</v>
       </c>
       <c r="D15" t="n">
-        <v>3.618618152097024</v>
+        <v>4.013789871078963</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>76.34136538912634</v>
+        <v>75.30786420520346</v>
       </c>
       <c r="D16" t="n">
-        <v>3.996207525778548</v>
+        <v>3.404954147149439</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>74.81927297718583</v>
+        <v>75.12721000523722</v>
       </c>
       <c r="D17" t="n">
-        <v>3.877422378938907</v>
+        <v>3.85128748528712</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>74.14228964727329</v>
+        <v>73.37564329519505</v>
       </c>
       <c r="D18" t="n">
-        <v>3.702319506772412</v>
+        <v>4.15847817802184</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>73.10970495222233</v>
+        <v>72.88419060904143</v>
       </c>
       <c r="D19" t="n">
-        <v>4.440282109861557</v>
+        <v>3.752445829624289</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>72.3284276886765</v>
+        <v>72.2162915196141</v>
       </c>
       <c r="D20" t="n">
-        <v>4.113305458669203</v>
+        <v>4.442614193127237</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>71.14889432565914</v>
+        <v>71.54245781188455</v>
       </c>
       <c r="D21" t="n">
-        <v>3.391640872372463</v>
+        <v>3.587519634529358</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.79246391321664</v>
+        <v>70.06559421726917</v>
       </c>
       <c r="D22" t="n">
-        <v>4.201002628307248</v>
+        <v>3.502829271804139</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>68.83376527962015</v>
+        <v>69.05497115832596</v>
       </c>
       <c r="D23" t="n">
-        <v>3.507487381905751</v>
+        <v>4.374819524119028</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>68.30608492566331</v>
+        <v>67.96778946913236</v>
       </c>
       <c r="D24" t="n">
-        <v>4.182686011392144</v>
+        <v>3.825851446503501</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>66.46821645910994</v>
+        <v>66.46816243966374</v>
       </c>
       <c r="D25" t="n">
-        <v>3.744044722776358</v>
+        <v>4.152665624468299</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.12843863975269</v>
+        <v>65.8241540751165</v>
       </c>
       <c r="D26" t="n">
-        <v>3.5300256185645</v>
+        <v>3.544217622643358</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.1700458523312</v>
+        <v>65.09815415858297</v>
       </c>
       <c r="D27" t="n">
-        <v>3.480115364567777</v>
+        <v>4.539287311327531</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>64.47695678144528</v>
+        <v>63.46706344126665</v>
       </c>
       <c r="D28" t="n">
-        <v>4.031406688999622</v>
+        <v>4.12096391922613</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>62.5612371133345</v>
+        <v>63.13808767190633</v>
       </c>
       <c r="D29" t="n">
-        <v>4.227547110504723</v>
+        <v>3.517654185271093</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>61.75846821104466</v>
+        <v>61.66245490514068</v>
       </c>
       <c r="D30" t="n">
-        <v>4.365211519475566</v>
+        <v>3.963056534452512</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>60.62985701815415</v>
+        <v>60.5255035526976</v>
       </c>
       <c r="D31" t="n">
-        <v>3.515392502698638</v>
+        <v>4.216066065133957</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.59605867073489</v>
+        <v>60.38706844986229</v>
       </c>
       <c r="D32" t="n">
-        <v>4.684743470059271</v>
+        <v>3.991954978001945</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>58.83926460871517</v>
+        <v>58.67404189213718</v>
       </c>
       <c r="D33" t="n">
-        <v>4.131426779146183</v>
+        <v>4.065294173745544</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>57.59764339622348</v>
+        <v>56.98923762001073</v>
       </c>
       <c r="D34" t="n">
-        <v>4.070909599130508</v>
+        <v>4.066693931068279</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.82442144679331</v>
+        <v>56.66633856110202</v>
       </c>
       <c r="D35" t="n">
-        <v>4.552375225333133</v>
+        <v>3.757413864151272</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.53981719248757</v>
+        <v>56.4787528716188</v>
       </c>
       <c r="D36" t="n">
-        <v>4.23462749128158</v>
+        <v>4.612518690007741</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.09311996644454</v>
+        <v>54.55250823805951</v>
       </c>
       <c r="D37" t="n">
-        <v>4.44280587198384</v>
+        <v>4.459885102201716</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.67691042559172</v>
+        <v>53.61183755272546</v>
       </c>
       <c r="D38" t="n">
-        <v>4.010455270334451</v>
+        <v>3.965925511343594</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.9700660526898</v>
+        <v>52.26924053226083</v>
       </c>
       <c r="D39" t="n">
-        <v>3.753665601318553</v>
+        <v>4.253374456814077</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.68993630082277</v>
+        <v>51.93385095777312</v>
       </c>
       <c r="D40" t="n">
-        <v>4.493107020472286</v>
+        <v>4.295995438208597</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.57851079810825</v>
+        <v>51.50342217777864</v>
       </c>
       <c r="D41" t="n">
-        <v>3.909843058268133</v>
+        <v>4.328964238680545</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.570575199672</v>
+        <v>50.59697675956699</v>
       </c>
       <c r="D42" t="n">
-        <v>4.618418627733019</v>
+        <v>3.706206844137288</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.50351618746725</v>
+        <v>49.03061708559497</v>
       </c>
       <c r="D43" t="n">
-        <v>3.994101001537087</v>
+        <v>4.246440923645704</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.07462902052252</v>
+        <v>48.88812794898087</v>
       </c>
       <c r="D44" t="n">
-        <v>3.843892418449069</v>
+        <v>4.163111118850586</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.2050020746867</v>
+        <v>46.57067136688622</v>
       </c>
       <c r="D45" t="n">
-        <v>5.01661293344979</v>
+        <v>4.475226638678333</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.91764018916968</v>
+        <v>45.9635268763663</v>
       </c>
       <c r="D46" t="n">
-        <v>4.491714712726843</v>
+        <v>4.32443759949808</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.75043778814039</v>
+        <v>44.92027666184205</v>
       </c>
       <c r="D47" t="n">
-        <v>4.526096052161224</v>
+        <v>4.226461446584019</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.10969745675974</v>
+        <v>43.78238859303705</v>
       </c>
       <c r="D48" t="n">
-        <v>4.142306295421358</v>
+        <v>4.332360619990944</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.87273087390161</v>
+        <v>42.77041004491817</v>
       </c>
       <c r="D49" t="n">
-        <v>4.599610296470367</v>
+        <v>4.718007191229108</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.18161096139673</v>
+        <v>40.99972165368329</v>
       </c>
       <c r="D50" t="n">
-        <v>4.685505808632777</v>
+        <v>4.842581793743605</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.36583975923924</v>
+        <v>41.45463291412941</v>
       </c>
       <c r="D51" t="n">
-        <v>4.119008970254016</v>
+        <v>4.349849436626334</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.92425055658073</v>
+        <v>40.28690948413319</v>
       </c>
       <c r="D52" t="n">
-        <v>4.572871926292776</v>
+        <v>3.978419807878459</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.51660669775368</v>
+        <v>38.92391379758911</v>
       </c>
       <c r="D53" t="n">
-        <v>4.131456281000758</v>
+        <v>4.355744720078298</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.24199928862917</v>
+        <v>37.74722172298443</v>
       </c>
       <c r="D54" t="n">
-        <v>4.255738064111988</v>
+        <v>4.534013510044856</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.67180412953562</v>
+        <v>37.00313449081608</v>
       </c>
       <c r="D55" t="n">
-        <v>4.054570396993986</v>
+        <v>4.714940641161251</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.49948533861535</v>
+        <v>35.0641695779272</v>
       </c>
       <c r="D56" t="n">
-        <v>4.911157085597919</v>
+        <v>4.462385649641793</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.12715147999184</v>
+        <v>35.2571062397099</v>
       </c>
       <c r="D57" t="n">
-        <v>4.851478365161553</v>
+        <v>4.140601786613116</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.90995832869117</v>
+        <v>33.47371052687615</v>
       </c>
       <c r="D58" t="n">
-        <v>3.934567472867024</v>
+        <v>4.465017082552171</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.33398949115747</v>
+        <v>33.36707027380039</v>
       </c>
       <c r="D59" t="n">
-        <v>4.305199281957761</v>
+        <v>4.604460785356163</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.36866416191533</v>
+        <v>31.71861633613746</v>
       </c>
       <c r="D60" t="n">
-        <v>4.586959850343526</v>
+        <v>4.790329700859723</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.54395791167896</v>
+        <v>30.41128798014428</v>
       </c>
       <c r="D61" t="n">
-        <v>4.892378051603806</v>
+        <v>4.248173232016152</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.74053394494295</v>
+        <v>30.17909627973721</v>
       </c>
       <c r="D62" t="n">
-        <v>5.218707426812431</v>
+        <v>4.13554874775296</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.25871583667667</v>
+        <v>29.13558045545966</v>
       </c>
       <c r="D63" t="n">
-        <v>4.24534833656271</v>
+        <v>4.146649461918531</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.51183850858676</v>
+        <v>27.97302749378073</v>
       </c>
       <c r="D64" t="n">
-        <v>4.108361806944178</v>
+        <v>4.611224079611739</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.02457955642394</v>
+        <v>27.26473616947099</v>
       </c>
       <c r="D65" t="n">
-        <v>4.297100521391353</v>
+        <v>4.143773907654457</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.15184874412015</v>
+        <v>25.84357775229069</v>
       </c>
       <c r="D66" t="n">
-        <v>4.625125539362354</v>
+        <v>4.288771926436851</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>25.42351803105324</v>
+        <v>25.24751128553853</v>
       </c>
       <c r="D67" t="n">
-        <v>5.023535257612483</v>
+        <v>4.094336263168181</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.31204126395421</v>
+        <v>24.42816187318428</v>
       </c>
       <c r="D68" t="n">
-        <v>4.708852336249898</v>
+        <v>4.813210343351741</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.36057977219478</v>
+        <v>23.45126509729876</v>
       </c>
       <c r="D69" t="n">
-        <v>4.186231014676819</v>
+        <v>4.850919708018239</v>
       </c>
     </row>
   </sheetData>
